--- a/domainapp/example/dom/src/main/java/org/incode/domainapp/example/dom/demo/fixture/todoitems/ToDoItems.xlsx
+++ b/domainapp/example/dom/src/main/java/org/incode/domainapp/example/dom/demo/fixture/todoitems/ToDoItems.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\incodehq\incode-platform\domainapp\example\dom\src\main\java\org\incode\domainapp\example\dom\demo\fixture\todoitems\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="40" windowWidth="19160" windowHeight="10300" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19155" windowHeight="10305"/>
   </bookViews>
   <sheets>
-    <sheet name="ExcelModuleDemoToDoItem" sheetId="1" r:id="rId1"/>
+    <sheet name="DemoToDoItem" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -80,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,20 +432,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -477,7 +482,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
         <v>5</v>
@@ -489,7 +494,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="C4" t="s">
         <v>6</v>
@@ -501,7 +506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>13</v>
@@ -516,7 +521,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>14</v>
@@ -528,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>15</v>
@@ -540,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>13</v>
@@ -552,19 +557,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
     </row>
   </sheetData>
@@ -586,7 +591,7 @@
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -610,19 +615,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>13</v>
@@ -631,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>14</v>
@@ -640,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>15</v>
@@ -649,7 +654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>13</v>
@@ -672,11 +677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -700,10 +705,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
